--- a/Catarse/Orçamento.xlsx
+++ b/Catarse/Orçamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hedtrot\Perspective\Catarse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Domínio Hedtrot.com + SSL</t>
   </si>
   <si>
-    <t>Arduino Uno</t>
-  </si>
-  <si>
     <t>Impressão do TCC</t>
-  </si>
-  <si>
-    <t>Leap Motion</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -62,9 +56,6 @@
     <t>Vitalicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensores Ultrassônicos </t>
-  </si>
-  <si>
     <t>Catarse</t>
   </si>
   <si>
@@ -85,14 +76,20 @@
   <si>
     <t>IOF</t>
   </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>Lucro Capitalista Opressor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$USD]\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$BRL]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$BRL]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -335,40 +332,64 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,30 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,38 +682,38 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="26" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="3"/>
     <col min="8" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.7">
-      <c r="A1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -732,18 +729,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="22">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21">
         <v>37</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="35">
         <f>((C2*G2)+((C2*G2)*G5))</f>
         <v>122.729</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="36">
         <v>3.1</v>
@@ -761,13 +758,11 @@
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26">
-        <v>99</v>
-      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -784,21 +779,17 @@
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26">
-        <v>40</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -811,23 +802,23 @@
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="13"/>
       <c r="F5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="40">
+        <v>15</v>
+      </c>
+      <c r="G5" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -839,21 +830,15 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>79</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="24">
         <f>((C6*G2)+((C6*G2)*G5))</f>
-        <v>262.04300000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="38">
+      <c r="F6" s="33">
         <v>0.13</v>
       </c>
       <c r="G6" s="4"/>
@@ -870,25 +855,25 @@
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>7*B7</f>
         <v>28</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <f>((C7*G2)+((C7*G2)*G5))</f>
         <v>92.876000000000005</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -901,25 +886,25 @@
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>25</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f>((C8*G2)+((C8*G2)*G5))</f>
         <v>82.924999999999997</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="35">
+      <c r="F8" s="32">
         <v>0.13</v>
       </c>
       <c r="G8" s="36">
         <f>(C14*0.13)</f>
-        <v>21.970000000000002</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="2"/>
@@ -935,13 +920,13 @@
     <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="37">
         <f>(D14*0.13)</f>
-        <v>90.944489999999988</v>
+        <v>38.808900000000008</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="2"/>
@@ -957,8 +942,8 @@
     <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -976,14 +961,14 @@
     <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -997,15 +982,15 @@
     <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4"/>
       <c r="F12" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" s="36">
         <f>C14+G8</f>
-        <v>190.97</v>
+        <v>101.7</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="2"/>
@@ -1020,12 +1005,12 @@
     </row>
     <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="37">
         <f>D14+G9</f>
-        <v>790.51748999999984</v>
+        <v>337.33890000000002</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="2"/>
@@ -1039,17 +1024,17 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="21">
+      <c r="A14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="20">
         <f>SUM(C2:C12)</f>
-        <v>169</v>
-      </c>
-      <c r="D14" s="25">
+        <v>90</v>
+      </c>
+      <c r="D14" s="24">
         <f>SUM(D2:D12)</f>
-        <v>699.57299999999987</v>
+        <v>298.53000000000003</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1068,8 +1053,8 @@
     <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1087,8 +1072,8 @@
     <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1106,8 +1091,8 @@
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1125,8 +1110,8 @@
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1144,8 +1129,8 @@
     <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1163,8 +1148,8 @@
     <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1182,8 +1167,8 @@
     <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1201,8 +1186,8 @@
     <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1220,8 +1205,8 @@
     <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1239,8 +1224,8 @@
     <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1258,8 +1243,8 @@
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1277,8 +1262,8 @@
     <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1296,8 +1281,8 @@
     <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1315,8 +1300,8 @@
     <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1334,8 +1319,8 @@
     <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1353,8 +1338,8 @@
     <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1372,8 +1357,8 @@
     <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="27"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1391,8 +1376,8 @@
     <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1410,8 +1395,8 @@
     <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1429,8 +1414,8 @@
     <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1448,8 +1433,8 @@
     <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1467,8 +1452,8 @@
     <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1486,8 +1471,8 @@
     <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1505,8 +1490,8 @@
     <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1524,8 +1509,8 @@
     <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1543,8 +1528,8 @@
     <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1562,8 +1547,8 @@
     <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1581,8 +1566,8 @@
     <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1600,8 +1585,8 @@
     <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1619,8 +1604,8 @@
     <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1638,8 +1623,8 @@
     <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1657,8 +1642,8 @@
     <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1676,8 +1661,8 @@
     <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -1695,8 +1680,8 @@
     <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1714,8 +1699,8 @@
     <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="27"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1733,8 +1718,8 @@
     <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -1752,8 +1737,8 @@
     <row r="51" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -1771,8 +1756,8 @@
     <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -1790,8 +1775,8 @@
     <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -1809,8 +1794,8 @@
     <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -1828,8 +1813,8 @@
     <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -1847,8 +1832,8 @@
     <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -1865,17 +1850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Catarse/Orçamento.xlsx
+++ b/Catarse/Orçamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hedtrot\Perspective\Catarse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\Perspective\Catarse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Domínio Hedtrot.com + SSL</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Lucro Capitalista Opressor</t>
+  </si>
+  <si>
+    <t>Recompensas</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,10 @@
     <xf numFmtId="165" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -709,11 +712,11 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -732,20 +735,20 @@
         <v>6</v>
       </c>
       <c r="C2" s="21">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D2" s="35">
         <f>((C2*G2)+((C2*G2)*G5))</f>
-        <v>122.729</v>
+        <v>201.58800000000002</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="H2" s="36"/>
+      <c r="G2" s="37">
+        <v>3.14</v>
+      </c>
+      <c r="H2" s="37"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -783,13 +786,15 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -810,15 +815,17 @@
       <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>300</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -830,7 +837,9 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="17"/>
       <c r="C6" s="20"/>
       <c r="D6" s="24">
@@ -861,19 +870,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="21">
-        <f>7*B7</f>
-        <v>28</v>
+        <f>6*B7</f>
+        <v>24</v>
       </c>
       <c r="D7" s="24">
         <f>((C7*G2)+((C7*G2)*G5))</f>
-        <v>92.876000000000005</v>
+        <v>80.635199999999998</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -896,17 +905,17 @@
       </c>
       <c r="D8" s="24">
         <f>((C8*G2)+((C8*G2)*G5))</f>
-        <v>82.924999999999997</v>
+        <v>83.995000000000005</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="32">
         <v>0.13</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="37">
         <f>(C14*0.13)</f>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="H8" s="36"/>
+        <v>14.17</v>
+      </c>
+      <c r="H8" s="37"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -921,14 +930,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="24">
+        <v>116</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="37">
+      <c r="G9" s="41">
         <f>(D14*0.13)</f>
-        <v>38.808900000000008</v>
-      </c>
-      <c r="H9" s="37"/>
+        <v>102.59836600000001</v>
+      </c>
+      <c r="H9" s="41"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -964,11 +975,11 @@
       <c r="C11" s="20"/>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -988,11 +999,11 @@
       <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="37">
         <f>C14+G8</f>
-        <v>101.7</v>
-      </c>
-      <c r="H12" s="36"/>
+        <v>123.17</v>
+      </c>
+      <c r="H12" s="37"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1008,11 +1019,11 @@
       <c r="B13" s="31"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="37">
+      <c r="G13" s="41">
         <f>D14+G9</f>
-        <v>337.33890000000002</v>
-      </c>
-      <c r="H13" s="37"/>
+        <v>891.81656600000008</v>
+      </c>
+      <c r="H13" s="41"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1024,17 +1035,17 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="20">
         <f>SUM(C2:C12)</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D14" s="24">
         <f>SUM(D2:D12)</f>
-        <v>298.53000000000003</v>
+        <v>789.21820000000002</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1850,6 +1861,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -1857,10 +1872,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Catarse/Orçamento.xlsx
+++ b/Catarse/Orçamento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Domínio Hedtrot.com + SSL</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Recompensas</t>
+  </si>
+  <si>
+    <t>Livros</t>
   </si>
 </sst>
 </file>
@@ -684,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -840,12 +843,11 @@
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="17">
+        <v>20</v>
+      </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="24">
-        <f>((C6*G2)+((C6*G2)*G5))</f>
-        <v>0</v>
-      </c>
+      <c r="D6" s="24"/>
       <c r="E6" s="4"/>
       <c r="F6" s="33">
         <v>0.13</v>
@@ -937,7 +939,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="41">
         <f>(D14*0.13)</f>
-        <v>102.59836600000001</v>
+        <v>144.87566600000002</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="2"/>
@@ -951,10 +953,16 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="24">
+        <v>325.20999999999998</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1021,7 +1029,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="41">
         <f>D14+G9</f>
-        <v>891.81656600000008</v>
+        <v>1259.3038660000002</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="2"/>
@@ -1045,7 +1053,7 @@
       </c>
       <c r="D14" s="24">
         <f>SUM(D2:D12)</f>
-        <v>789.21820000000002</v>
+        <v>1114.4282000000001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>

--- a/Catarse/Orçamento.xlsx
+++ b/Catarse/Orçamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\Perspective\Catarse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\Projects\Perspective\Catarse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Domínio Hedtrot.com + SSL</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Livros</t>
+  </si>
+  <si>
+    <t>Plugins</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
     <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$BRL]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,10 +691,10 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
@@ -701,7 +704,7 @@
     <col min="8" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -730,7 +733,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -742,14 +745,14 @@
       </c>
       <c r="D2" s="35">
         <f>((C2*G2)+((C2*G2)*G5))</f>
-        <v>201.58800000000002</v>
+        <v>205.44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="37">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="2"/>
@@ -762,7 +765,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -783,7 +786,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
@@ -808,7 +811,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="5" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -839,7 +842,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
@@ -864,7 +867,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -877,7 +880,7 @@
       </c>
       <c r="D7" s="24">
         <f>((C7*G2)+((C7*G2)*G5))</f>
-        <v>80.635199999999998</v>
+        <v>82.176000000000016</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="36" t="s">
@@ -895,7 +898,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="5" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
@@ -907,7 +910,7 @@
       </c>
       <c r="D8" s="24">
         <f>((C8*G2)+((C8*G2)*G5))</f>
-        <v>83.995000000000005</v>
+        <v>85.6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="32">
@@ -915,7 +918,7 @@
       </c>
       <c r="G8" s="37">
         <f>(C14*0.13)</f>
-        <v>14.17</v>
+        <v>46.67</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="2"/>
@@ -928,18 +931,23 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="25.5">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20">
+        <v>135</v>
+      </c>
       <c r="D9" s="24">
-        <v>116</v>
+        <f>((C9*G2)+((C9*G2)*G5))</f>
+        <v>462.24</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="41">
         <f>(D14*0.13)</f>
-        <v>144.87566600000002</v>
+        <v>241.98538000000002</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="2"/>
@@ -952,7 +960,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -977,11 +985,17 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="20">
+        <f>70+45</f>
+        <v>115</v>
+      </c>
+      <c r="D11" s="24">
+        <f>((C11*G2)+((C11*G2)*G5))</f>
+        <v>393.76</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="36" t="s">
         <v>13</v>
@@ -998,7 +1012,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="20"/>
@@ -1009,7 +1023,7 @@
       </c>
       <c r="G12" s="37">
         <f>C14+G8</f>
-        <v>123.17</v>
+        <v>405.67</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="2"/>
@@ -1022,14 +1036,14 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="25.5">
       <c r="A13" s="14"/>
       <c r="B13" s="31"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="41">
         <f>D14+G9</f>
-        <v>1259.3038660000002</v>
+        <v>2103.41138</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="2"/>
@@ -1042,18 +1056,18 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="5" customFormat="1">
       <c r="A14" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="20">
         <f>SUM(C2:C12)</f>
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="D14" s="24">
         <f>SUM(D2:D12)</f>
-        <v>1114.4282000000001</v>
+        <v>1861.4260000000002</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1069,7 +1083,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="5" customFormat="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="22"/>
@@ -1088,7 +1102,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="5" customFormat="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
       <c r="C16" s="22"/>
@@ -1107,7 +1121,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="5" customFormat="1">
       <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="C17" s="22"/>
@@ -1126,7 +1140,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="5" customFormat="1">
       <c r="A18" s="12"/>
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
@@ -1145,7 +1159,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="5" customFormat="1">
       <c r="A19" s="12"/>
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
@@ -1164,7 +1178,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="5" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4"/>
       <c r="C20" s="22"/>
@@ -1183,7 +1197,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="5" customFormat="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="C21" s="22"/>
@@ -1202,7 +1216,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="5" customFormat="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4"/>
       <c r="C22" s="22"/>
@@ -1221,7 +1235,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="5" customFormat="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4"/>
       <c r="C23" s="22"/>
@@ -1240,7 +1254,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="5" customFormat="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="C24" s="22"/>
@@ -1259,7 +1273,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="5" customFormat="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4"/>
       <c r="C25" s="22"/>
@@ -1278,7 +1292,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="5" customFormat="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4"/>
       <c r="C26" s="22"/>
@@ -1297,7 +1311,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="5" customFormat="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="C27" s="22"/>
@@ -1316,7 +1330,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="5" customFormat="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4"/>
       <c r="C28" s="22"/>
@@ -1335,7 +1349,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="5" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4"/>
       <c r="C29" s="22"/>
@@ -1354,7 +1368,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="5" customFormat="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="C30" s="22"/>
@@ -1373,7 +1387,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="5" customFormat="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4"/>
       <c r="C31" s="22"/>
@@ -1392,7 +1406,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="5" customFormat="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4"/>
       <c r="C32" s="22"/>
@@ -1411,7 +1425,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="5" customFormat="1">
       <c r="A33" s="12"/>
       <c r="B33" s="4"/>
       <c r="C33" s="22"/>
@@ -1430,7 +1444,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="5" customFormat="1">
       <c r="A34" s="12"/>
       <c r="B34" s="4"/>
       <c r="C34" s="22"/>
@@ -1449,7 +1463,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="5" customFormat="1">
       <c r="A35" s="12"/>
       <c r="B35" s="4"/>
       <c r="C35" s="22"/>
@@ -1468,7 +1482,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="5" customFormat="1">
       <c r="A36" s="12"/>
       <c r="B36" s="4"/>
       <c r="C36" s="22"/>
@@ -1487,7 +1501,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="5" customFormat="1">
       <c r="A37" s="12"/>
       <c r="B37" s="4"/>
       <c r="C37" s="22"/>
@@ -1506,7 +1520,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="5" customFormat="1">
       <c r="A38" s="12"/>
       <c r="B38" s="4"/>
       <c r="C38" s="22"/>
@@ -1525,7 +1539,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="5" customFormat="1">
       <c r="A39" s="12"/>
       <c r="B39" s="4"/>
       <c r="C39" s="22"/>
@@ -1544,7 +1558,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="5" customFormat="1">
       <c r="A40" s="12"/>
       <c r="B40" s="4"/>
       <c r="C40" s="22"/>
@@ -1563,7 +1577,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="5" customFormat="1">
       <c r="A41" s="12"/>
       <c r="B41" s="4"/>
       <c r="C41" s="22"/>
@@ -1582,7 +1596,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="5" customFormat="1">
       <c r="A42" s="12"/>
       <c r="B42" s="4"/>
       <c r="C42" s="22"/>
@@ -1601,7 +1615,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="5" customFormat="1">
       <c r="A43" s="12"/>
       <c r="B43" s="4"/>
       <c r="C43" s="22"/>
@@ -1620,7 +1634,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="5" customFormat="1">
       <c r="A44" s="12"/>
       <c r="B44" s="4"/>
       <c r="C44" s="22"/>
@@ -1639,7 +1653,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="5" customFormat="1">
       <c r="A45" s="12"/>
       <c r="B45" s="4"/>
       <c r="C45" s="22"/>
@@ -1658,7 +1672,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="5" customFormat="1">
       <c r="A46" s="12"/>
       <c r="B46" s="4"/>
       <c r="C46" s="22"/>
@@ -1677,7 +1691,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="5" customFormat="1">
       <c r="A47" s="12"/>
       <c r="B47" s="4"/>
       <c r="C47" s="22"/>
@@ -1696,7 +1710,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="5" customFormat="1">
       <c r="A48" s="12"/>
       <c r="B48" s="4"/>
       <c r="C48" s="22"/>
@@ -1715,7 +1729,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="5" customFormat="1">
       <c r="A49" s="12"/>
       <c r="B49" s="4"/>
       <c r="C49" s="22"/>
@@ -1734,7 +1748,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="5" customFormat="1">
       <c r="A50" s="12"/>
       <c r="B50" s="4"/>
       <c r="C50" s="22"/>
@@ -1753,7 +1767,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="5" customFormat="1">
       <c r="A51" s="12"/>
       <c r="B51" s="4"/>
       <c r="C51" s="22"/>
@@ -1772,7 +1786,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="5" customFormat="1">
       <c r="A52" s="12"/>
       <c r="B52" s="4"/>
       <c r="C52" s="22"/>
@@ -1791,7 +1805,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="5" customFormat="1">
       <c r="A53" s="12"/>
       <c r="B53" s="4"/>
       <c r="C53" s="22"/>
@@ -1810,7 +1824,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="5" customFormat="1">
       <c r="A54" s="12"/>
       <c r="B54" s="4"/>
       <c r="C54" s="22"/>
@@ -1829,7 +1843,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="5" customFormat="1">
       <c r="A55" s="12"/>
       <c r="B55" s="4"/>
       <c r="C55" s="22"/>
@@ -1848,7 +1862,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="8" customFormat="1">
       <c r="A56" s="13"/>
       <c r="B56" s="6"/>
       <c r="C56" s="23"/>
